--- a/Player Database/Zlatan.xlsx
+++ b/Player Database/Zlatan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="36">
   <si>
     <t xml:space="preserve">TEAM</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">Inter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitute</t>
   </si>
   <si>
     <t xml:space="preserve">Ita Cup</t>
@@ -341,14 +338,13 @@
   </sheetPr>
   <dimension ref="A1:H735"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A233" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D253" activeCellId="0" sqref="D253 D262 D270 D278 D699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,8 +6079,8 @@
       <c r="C226" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D226" s="3" t="s">
-        <v>21</v>
+      <c r="D226" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E226" s="3" t="n">
         <v>1</v>
@@ -6393,7 +6389,7 @@
         <v>39091</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D238" s="3" t="n">
         <v>77</v>
@@ -6785,8 +6781,8 @@
       <c r="C253" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>21</v>
+      <c r="D253" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E253" s="3" t="n">
         <v>0</v>
@@ -7003,8 +6999,8 @@
       <c r="C262" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D262" s="3" t="s">
-        <v>21</v>
+      <c r="D262" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E262" s="3" t="n">
         <v>0</v>
@@ -7211,8 +7207,8 @@
       <c r="C270" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D270" s="3" t="s">
-        <v>21</v>
+      <c r="D270" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E270" s="3" t="n">
         <v>0</v>
@@ -7411,8 +7407,8 @@
       <c r="C278" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D278" s="3" t="s">
-        <v>21</v>
+      <c r="D278" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E278" s="3" t="n">
         <v>0</v>
@@ -8797,7 +8793,7 @@
         <v>39826</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D332" s="3" t="n">
         <v>90</v>
@@ -8849,7 +8845,7 @@
         <v>39834</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D334" s="3" t="n">
         <v>90</v>
@@ -9231,7 +9227,7 @@
         <v>39926</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D349" s="3" t="n">
         <v>90</v>
@@ -9439,7 +9435,7 @@
         <v>40013</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D357" s="3" t="n">
         <v>35</v>
@@ -9465,7 +9461,7 @@
         <v>40015</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D358" s="3" t="n">
         <v>32</v>
@@ -9477,13 +9473,13 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B359" s="4" t="n">
         <v>40053</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D359" s="3" t="n">
         <v>80</v>
@@ -9503,13 +9499,13 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B360" s="4" t="n">
         <v>40056</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D360" s="3" t="n">
         <v>90</v>
@@ -9581,13 +9577,13 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B363" s="4" t="n">
         <v>40068</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D363" s="3" t="n">
         <v>90</v>
@@ -9607,7 +9603,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B364" s="4" t="n">
         <v>40072</v>
@@ -9633,13 +9629,13 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B365" s="4" t="n">
         <v>40075</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D365" s="3" t="n">
         <v>84</v>
@@ -9659,13 +9655,13 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B366" s="4" t="n">
         <v>40078</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D366" s="3" t="n">
         <v>52</v>
@@ -9685,13 +9681,13 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B367" s="4" t="n">
         <v>40082</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D367" s="3" t="n">
         <v>62</v>
@@ -9711,7 +9707,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B368" s="4" t="n">
         <v>40085</v>
@@ -9737,13 +9733,13 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B369" s="4" t="n">
         <v>40089</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D369" s="3" t="n">
         <v>90</v>
@@ -9815,13 +9811,13 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B372" s="4" t="n">
         <v>40103</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D372" s="3" t="n">
         <v>0</v>
@@ -9833,7 +9829,7 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B373" s="4" t="n">
         <v>40106</v>
@@ -9859,13 +9855,13 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B374" s="4" t="n">
         <v>40111</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D374" s="3" t="n">
         <v>71</v>
@@ -9885,13 +9881,13 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B375" s="4" t="n">
         <v>40117</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D375" s="3" t="n">
         <v>90</v>
@@ -9911,7 +9907,7 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B376" s="4" t="n">
         <v>40121</v>
@@ -9937,13 +9933,13 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B377" s="4" t="n">
         <v>40124</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D377" s="3" t="n">
         <v>90</v>
@@ -9963,7 +9959,7 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B378" s="4" t="n">
         <v>40141</v>
@@ -9981,13 +9977,13 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B379" s="4" t="n">
         <v>40146</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D379" s="3" t="n">
         <v>40</v>
@@ -10007,13 +10003,13 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B380" s="4" t="n">
         <v>40149</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D380" s="3" t="n">
         <v>24</v>
@@ -10033,13 +10029,13 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B381" s="4" t="n">
         <v>40152</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D381" s="3" t="n">
         <v>90</v>
@@ -10059,7 +10055,7 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B382" s="4" t="n">
         <v>40156</v>
@@ -10085,13 +10081,13 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B383" s="4" t="n">
         <v>40159</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D383" s="3" t="n">
         <v>75</v>
@@ -10111,13 +10107,13 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B384" s="4" t="n">
         <v>40163</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D384" s="3" t="n">
         <v>90</v>
@@ -10137,13 +10133,13 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B385" s="4" t="n">
         <v>40166</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D385" s="3" t="n">
         <v>90</v>
@@ -10163,13 +10159,13 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B386" s="4" t="n">
         <v>40180</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D386" s="3" t="n">
         <v>90</v>
@@ -10189,13 +10185,13 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B387" s="4" t="n">
         <v>40183</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D387" s="3" t="n">
         <v>44</v>
@@ -10215,13 +10211,13 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B388" s="4" t="n">
         <v>40191</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D388" s="3" t="n">
         <v>84</v>
@@ -10241,13 +10237,13 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B389" s="4" t="n">
         <v>40194</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D389" s="3" t="n">
         <v>90</v>
@@ -10267,13 +10263,13 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B390" s="4" t="n">
         <v>40201</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D390" s="3" t="n">
         <v>90</v>
@@ -10293,13 +10289,13 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B391" s="4" t="n">
         <v>40208</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D391" s="3" t="n">
         <v>90</v>
@@ -10319,13 +10315,13 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B392" s="4" t="n">
         <v>40215</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D392" s="3" t="n">
         <v>51</v>
@@ -10345,13 +10341,13 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B393" s="4" t="n">
         <v>40223</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D393" s="3" t="n">
         <v>90</v>
@@ -10371,7 +10367,7 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B394" s="4" t="n">
         <v>40232</v>
@@ -10397,13 +10393,13 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B395" s="4" t="n">
         <v>40236</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D395" s="3" t="n">
         <v>90</v>
@@ -10423,13 +10419,13 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B396" s="4" t="n">
         <v>40243</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D396" s="3" t="n">
         <v>90</v>
@@ -10449,7 +10445,7 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B397" s="4" t="n">
         <v>40254</v>
@@ -10475,13 +10471,13 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B398" s="4" t="n">
         <v>40258</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D398" s="3" t="n">
         <v>90</v>
@@ -10501,13 +10497,13 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B399" s="4" t="n">
         <v>40261</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D399" s="3" t="n">
         <v>73</v>
@@ -10527,13 +10523,13 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B400" s="4" t="n">
         <v>40264</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D400" s="3" t="n">
         <v>90</v>
@@ -10553,7 +10549,7 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B401" s="4" t="n">
         <v>40268</v>
@@ -10579,13 +10575,13 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B402" s="4" t="n">
         <v>40285</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D402" s="3" t="n">
         <v>9</v>
@@ -10605,7 +10601,7 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B403" s="4" t="n">
         <v>40288</v>
@@ -10631,13 +10627,13 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B404" s="4" t="n">
         <v>40292</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D404" s="3" t="n">
         <v>90</v>
@@ -10657,7 +10653,7 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B405" s="4" t="n">
         <v>40296</v>
@@ -10683,13 +10679,13 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B406" s="4" t="n">
         <v>40299</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D406" s="3" t="n">
         <v>6</v>
@@ -10709,13 +10705,13 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B407" s="4" t="n">
         <v>40302</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D407" s="3" t="n">
         <v>65</v>
@@ -10735,13 +10731,13 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B408" s="4" t="n">
         <v>40306</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D408" s="3" t="n">
         <v>0</v>
@@ -10753,13 +10749,13 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B409" s="4" t="n">
         <v>40314</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D409" s="3" t="n">
         <v>11</v>
@@ -10883,7 +10879,7 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B414" s="4" t="n">
         <v>40432</v>
@@ -10909,7 +10905,7 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B415" s="4" t="n">
         <v>40436</v>
@@ -10935,7 +10931,7 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B416" s="4" t="n">
         <v>40439</v>
@@ -10961,7 +10957,7 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B417" s="4" t="n">
         <v>40443</v>
@@ -10987,7 +10983,7 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B418" s="4" t="n">
         <v>40446</v>
@@ -11013,7 +11009,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B419" s="4" t="n">
         <v>40449</v>
@@ -11039,7 +11035,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B420" s="4" t="n">
         <v>40453</v>
@@ -11091,7 +11087,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B422" s="4" t="n">
         <v>40467</v>
@@ -11117,7 +11113,7 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B423" s="4" t="n">
         <v>40470</v>
@@ -11143,7 +11139,7 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B424" s="4" t="n">
         <v>40476</v>
@@ -11169,7 +11165,7 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B425" s="4" t="n">
         <v>40481</v>
@@ -11195,7 +11191,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B426" s="4" t="n">
         <v>40485</v>
@@ -11221,7 +11217,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B427" s="4" t="n">
         <v>40489</v>
@@ -11247,7 +11243,7 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B428" s="4" t="n">
         <v>40492</v>
@@ -11273,7 +11269,7 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B429" s="4" t="n">
         <v>40496</v>
@@ -11299,7 +11295,7 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B430" s="4" t="n">
         <v>40502</v>
@@ -11325,7 +11321,7 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B431" s="4" t="n">
         <v>40505</v>
@@ -11351,7 +11347,7 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B432" s="4" t="n">
         <v>40509</v>
@@ -11377,7 +11373,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B433" s="4" t="n">
         <v>40516</v>
@@ -11403,7 +11399,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B434" s="4" t="n">
         <v>40520</v>
@@ -11429,7 +11425,7 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B435" s="4" t="n">
         <v>40524</v>
@@ -11455,7 +11451,7 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B436" s="4" t="n">
         <v>40530</v>
@@ -11481,7 +11477,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B437" s="4" t="n">
         <v>40552</v>
@@ -11507,7 +11503,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B438" s="4" t="n">
         <v>40559</v>
@@ -11533,13 +11529,13 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B439" s="4" t="n">
         <v>40563</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D439" s="3" t="n">
         <v>90</v>
@@ -11559,7 +11555,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B440" s="4" t="n">
         <v>40566</v>
@@ -11585,13 +11581,13 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B441" s="4" t="n">
         <v>40569</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D441" s="3" t="n">
         <v>4</v>
@@ -11611,7 +11607,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B442" s="4" t="n">
         <v>40572</v>
@@ -11637,7 +11633,7 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B443" s="4" t="n">
         <v>40575</v>
@@ -11663,7 +11659,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B444" s="4" t="n">
         <v>40580</v>
@@ -11689,7 +11685,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B445" s="4" t="n">
         <v>40586</v>
@@ -11715,7 +11711,7 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B446" s="4" t="n">
         <v>40589</v>
@@ -11741,7 +11737,7 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B447" s="4" t="n">
         <v>40594</v>
@@ -11767,7 +11763,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B448" s="4" t="n">
         <v>40602</v>
@@ -11793,7 +11789,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B449" s="4" t="n">
         <v>40607</v>
@@ -11819,7 +11815,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B450" s="4" t="n">
         <v>40611</v>
@@ -11845,7 +11841,7 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B451" s="4" t="n">
         <v>40615</v>
@@ -11897,7 +11893,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B453" s="4" t="n">
         <v>40643</v>
@@ -11923,13 +11919,13 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B454" s="4" t="n">
         <v>40653</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D454" s="3" t="n">
         <v>90</v>
@@ -11949,7 +11945,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B455" s="4" t="n">
         <v>40670</v>
@@ -11975,13 +11971,13 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B456" s="4" t="n">
         <v>40673</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D456" s="3" t="n">
         <v>25</v>
@@ -12027,13 +12023,13 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B458" s="4" t="n">
         <v>40761</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D458" s="3" t="n">
         <v>90</v>
@@ -12105,7 +12101,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B461" s="4" t="n">
         <v>40795</v>
@@ -12131,7 +12127,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B462" s="4" t="n">
         <v>40814</v>
@@ -12157,7 +12153,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B463" s="4" t="n">
         <v>40818</v>
@@ -12209,7 +12205,7 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B465" s="4" t="n">
         <v>40831</v>
@@ -12235,7 +12231,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B466" s="4" t="n">
         <v>40835</v>
@@ -12261,7 +12257,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B467" s="4" t="n">
         <v>40839</v>
@@ -12287,7 +12283,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B468" s="4" t="n">
         <v>40842</v>
@@ -12313,7 +12309,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B469" s="4" t="n">
         <v>40845</v>
@@ -12339,7 +12335,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B470" s="4" t="n">
         <v>40848</v>
@@ -12365,7 +12361,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B471" s="4" t="n">
         <v>40853</v>
@@ -12469,7 +12465,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B475" s="4" t="n">
         <v>40866</v>
@@ -12495,7 +12491,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B476" s="4" t="n">
         <v>40870</v>
@@ -12521,7 +12517,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B477" s="4" t="n">
         <v>40874</v>
@@ -12547,7 +12543,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B478" s="4" t="n">
         <v>40879</v>
@@ -12573,7 +12569,7 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B479" s="4" t="n">
         <v>40883</v>
@@ -12591,7 +12587,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B480" s="4" t="n">
         <v>40888</v>
@@ -12617,7 +12613,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B481" s="4" t="n">
         <v>40894</v>
@@ -12643,7 +12639,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B482" s="4" t="n">
         <v>40897</v>
@@ -12669,7 +12665,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B483" s="4" t="n">
         <v>40916</v>
@@ -12695,7 +12691,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B484" s="4" t="n">
         <v>40923</v>
@@ -12721,13 +12717,13 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B485" s="4" t="n">
         <v>40926</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D485" s="3" t="n">
         <v>0</v>
@@ -12739,7 +12735,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B486" s="4" t="n">
         <v>40930</v>
@@ -12765,13 +12761,13 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B487" s="4" t="n">
         <v>40934</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D487" s="3" t="n">
         <v>20</v>
@@ -12791,7 +12787,7 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B488" s="4" t="n">
         <v>40937</v>
@@ -12817,7 +12813,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B489" s="4" t="n">
         <v>40940</v>
@@ -12843,7 +12839,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B490" s="4" t="n">
         <v>40944</v>
@@ -12869,13 +12865,13 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B491" s="4" t="n">
         <v>40947</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D491" s="3" t="n">
         <v>90</v>
@@ -12895,7 +12891,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B492" s="4" t="n">
         <v>40954</v>
@@ -12947,7 +12943,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B494" s="4" t="n">
         <v>40971</v>
@@ -12973,7 +12969,7 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B495" s="4" t="n">
         <v>40974</v>
@@ -12999,7 +12995,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B496" s="4" t="n">
         <v>40979</v>
@@ -13025,7 +13021,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B497" s="4" t="n">
         <v>40985</v>
@@ -13051,13 +13047,13 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B498" s="4" t="n">
         <v>40988</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D498" s="3" t="n">
         <v>46</v>
@@ -13077,7 +13073,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B499" s="4" t="n">
         <v>40992</v>
@@ -13103,7 +13099,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B500" s="4" t="n">
         <v>40996</v>
@@ -13129,7 +13125,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B501" s="4" t="n">
         <v>40999</v>
@@ -13155,7 +13151,7 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B502" s="4" t="n">
         <v>41002</v>
@@ -13181,7 +13177,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B503" s="4" t="n">
         <v>41006</v>
@@ -13207,7 +13203,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B504" s="4" t="n">
         <v>41009</v>
@@ -13233,7 +13229,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B505" s="4" t="n">
         <v>41021</v>
@@ -13259,7 +13255,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B506" s="4" t="n">
         <v>41024</v>
@@ -13285,7 +13281,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B507" s="4" t="n">
         <v>41028</v>
@@ -13311,7 +13307,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B508" s="4" t="n">
         <v>41031</v>
@@ -13337,7 +13333,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B509" s="4" t="n">
         <v>41035</v>
@@ -13363,7 +13359,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B510" s="4" t="n">
         <v>41042</v>
@@ -13519,13 +13515,13 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B516" s="4" t="n">
         <v>41118</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D516" s="3" t="n">
         <v>38</v>
@@ -13545,13 +13541,13 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B517" s="4" t="n">
         <v>41132</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D517" s="3" t="n">
         <v>90</v>
@@ -13571,13 +13567,13 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B518" s="4" t="n">
         <v>41147</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D518" s="3" t="n">
         <v>90</v>
@@ -13597,13 +13593,13 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B519" s="4" t="n">
         <v>41154</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D519" s="3" t="n">
         <v>90</v>
@@ -13675,13 +13671,13 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B522" s="4" t="n">
         <v>41166</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D522" s="3" t="n">
         <v>90</v>
@@ -13701,7 +13697,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B523" s="4" t="n">
         <v>41170</v>
@@ -13727,13 +13723,13 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B524" s="4" t="n">
         <v>41174</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D524" s="3" t="n">
         <v>90</v>
@@ -13753,13 +13749,13 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B525" s="4" t="n">
         <v>41181</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D525" s="3" t="n">
         <v>90</v>
@@ -13779,7 +13775,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B526" s="4" t="n">
         <v>41185</v>
@@ -13805,13 +13801,13 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B527" s="4" t="n">
         <v>41189</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D527" s="3" t="n">
         <v>90</v>
@@ -13883,13 +13879,13 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B530" s="4" t="n">
         <v>41202</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D530" s="3" t="n">
         <v>90</v>
@@ -13909,7 +13905,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B531" s="4" t="n">
         <v>41206</v>
@@ -13935,13 +13931,13 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B532" s="4" t="n">
         <v>41209</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D532" s="3" t="n">
         <v>90</v>
@@ -13961,13 +13957,13 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B533" s="4" t="n">
         <v>41216</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D533" s="3" t="n">
         <v>90</v>
@@ -13987,7 +13983,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B534" s="4" t="n">
         <v>41219</v>
@@ -14013,7 +14009,7 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B535" s="4" t="n">
         <v>41234</v>
@@ -14039,13 +14035,13 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B536" s="4" t="n">
         <v>41237</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D536" s="3" t="n">
         <v>90</v>
@@ -14065,13 +14061,13 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B537" s="4" t="n">
         <v>41240</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D537" s="3" t="n">
         <v>90</v>
@@ -14091,13 +14087,13 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B538" s="4" t="n">
         <v>41244</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D538" s="3" t="n">
         <v>90</v>
@@ -14117,7 +14113,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B539" s="4" t="n">
         <v>41247</v>
@@ -14143,13 +14139,13 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B540" s="4" t="n">
         <v>41251</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D540" s="3" t="n">
         <v>90</v>
@@ -14169,13 +14165,13 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B541" s="4" t="n">
         <v>41254</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D541" s="3" t="n">
         <v>90</v>
@@ -14195,13 +14191,13 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B542" s="4" t="n">
         <v>41259</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D542" s="3" t="n">
         <v>90</v>
@@ -14221,13 +14217,13 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B543" s="4" t="n">
         <v>41264</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D543" s="3" t="n">
         <v>90</v>
@@ -14247,13 +14243,13 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B544" s="4" t="n">
         <v>41285</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D544" s="3" t="n">
         <v>90</v>
@@ -14273,13 +14269,13 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B545" s="4" t="n">
         <v>41294</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D545" s="3" t="n">
         <v>90</v>
@@ -14299,13 +14295,13 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B546" s="4" t="n">
         <v>41301</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D546" s="3" t="n">
         <v>90</v>
@@ -14325,13 +14321,13 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B547" s="4" t="n">
         <v>41306</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D547" s="3" t="n">
         <v>90</v>
@@ -14377,13 +14373,13 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B549" s="4" t="n">
         <v>41313</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D549" s="3" t="n">
         <v>25</v>
@@ -14403,7 +14399,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B550" s="4" t="n">
         <v>41317</v>
@@ -14429,13 +14425,13 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B551" s="4" t="n">
         <v>41322</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D551" s="3" t="n">
         <v>90</v>
@@ -14455,13 +14451,13 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B552" s="4" t="n">
         <v>41329</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D552" s="3" t="n">
         <v>90</v>
@@ -14481,13 +14477,13 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B553" s="4" t="n">
         <v>41332</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D553" s="3" t="n">
         <v>76</v>
@@ -14507,13 +14503,13 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B554" s="4" t="n">
         <v>41335</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D554" s="3" t="n">
         <v>90</v>
@@ -14533,13 +14529,13 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B555" s="4" t="n">
         <v>41342</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D555" s="3" t="n">
         <v>90</v>
@@ -14559,13 +14555,13 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B556" s="4" t="n">
         <v>41350</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D556" s="3" t="n">
         <v>90</v>
@@ -14637,13 +14633,13 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B559" s="4" t="n">
         <v>41362</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D559" s="3" t="n">
         <v>90</v>
@@ -14663,7 +14659,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B560" s="4" t="n">
         <v>41366</v>
@@ -14689,13 +14685,13 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B561" s="4" t="n">
         <v>41370</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D561" s="3" t="n">
         <v>90</v>
@@ -14715,7 +14711,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B562" s="4" t="n">
         <v>41374</v>
@@ -14741,13 +14737,13 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B563" s="4" t="n">
         <v>41381</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D563" s="3" t="n">
         <v>90</v>
@@ -14767,13 +14763,13 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B564" s="4" t="n">
         <v>41385</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D564" s="3" t="n">
         <v>90</v>
@@ -14793,13 +14789,13 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B565" s="4" t="n">
         <v>41392</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D565" s="3" t="n">
         <v>90</v>
@@ -14819,13 +14815,13 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B566" s="4" t="n">
         <v>41399</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D566" s="3" t="n">
         <v>90</v>
@@ -14845,13 +14841,13 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B567" s="4" t="n">
         <v>41406</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D567" s="3" t="n">
         <v>90</v>
@@ -14871,13 +14867,13 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B568" s="4" t="n">
         <v>41412</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D568" s="3" t="n">
         <v>90</v>
@@ -14897,13 +14893,13 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B569" s="4" t="n">
         <v>41420</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D569" s="3" t="n">
         <v>90</v>
@@ -14975,13 +14971,13 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B572" s="4" t="n">
         <v>41495</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D572" s="3" t="n">
         <v>90</v>
@@ -15027,13 +15023,13 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B574" s="4" t="n">
         <v>41504</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D574" s="3" t="n">
         <v>90</v>
@@ -15053,13 +15049,13 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B575" s="4" t="n">
         <v>41511</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D575" s="3" t="n">
         <v>90</v>
@@ -15079,13 +15075,13 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B576" s="4" t="n">
         <v>41517</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D576" s="3" t="n">
         <v>90</v>
@@ -15157,13 +15153,13 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B579" s="4" t="n">
         <v>41530</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D579" s="3" t="n">
         <v>80</v>
@@ -15183,7 +15179,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B580" s="4" t="n">
         <v>41534</v>
@@ -15209,13 +15205,13 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B581" s="4" t="n">
         <v>41539</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D581" s="3" t="n">
         <v>90</v>
@@ -15235,13 +15231,13 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B582" s="4" t="n">
         <v>41542</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D582" s="3" t="n">
         <v>90</v>
@@ -15261,13 +15257,13 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B583" s="4" t="n">
         <v>41545</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D583" s="3" t="n">
         <v>68</v>
@@ -15287,7 +15283,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B584" s="4" t="n">
         <v>41549</v>
@@ -15313,13 +15309,13 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B585" s="4" t="n">
         <v>41553</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D585" s="3" t="n">
         <v>75</v>
@@ -15365,13 +15361,13 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B587" s="4" t="n">
         <v>41566</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D587" s="3" t="n">
         <v>45</v>
@@ -15391,7 +15387,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B588" s="4" t="n">
         <v>41570</v>
@@ -15417,13 +15413,13 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B589" s="4" t="n">
         <v>41574</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D589" s="3" t="n">
         <v>90</v>
@@ -15443,7 +15439,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B590" s="4" t="n">
         <v>41583</v>
@@ -15469,13 +15465,13 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B591" s="4" t="n">
         <v>41587</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D591" s="3" t="n">
         <v>90</v>
@@ -15547,13 +15543,13 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B594" s="4" t="n">
         <v>41601</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D594" s="3" t="n">
         <v>90</v>
@@ -15573,7 +15569,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B595" s="4" t="n">
         <v>41605</v>
@@ -15599,13 +15595,13 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B596" s="4" t="n">
         <v>41609</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D596" s="3" t="n">
         <v>90</v>
@@ -15625,13 +15621,13 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B597" s="4" t="n">
         <v>41612</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D597" s="3" t="n">
         <v>90</v>
@@ -15651,13 +15647,13 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B598" s="4" t="n">
         <v>41615</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D598" s="3" t="n">
         <v>90</v>
@@ -15677,13 +15673,13 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B599" s="4" t="n">
         <v>41622</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D599" s="3" t="n">
         <v>90</v>
@@ -15703,13 +15699,13 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B600" s="4" t="n">
         <v>41630</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D600" s="3" t="n">
         <v>90</v>
@@ -15729,13 +15725,13 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B601" s="4" t="n">
         <v>41647</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D601" s="3" t="n">
         <v>63</v>
@@ -15755,13 +15751,13 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B602" s="4" t="n">
         <v>41650</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D602" s="3" t="n">
         <v>90</v>
@@ -15781,13 +15777,13 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B603" s="4" t="n">
         <v>41653</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D603" s="3" t="n">
         <v>46</v>
@@ -15807,13 +15803,13 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B604" s="4" t="n">
         <v>41658</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D604" s="3" t="n">
         <v>90</v>
@@ -15833,13 +15829,13 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B605" s="4" t="n">
         <v>41661</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D605" s="3" t="n">
         <v>24</v>
@@ -15859,13 +15855,13 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B606" s="4" t="n">
         <v>41664</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D606" s="3" t="n">
         <v>90</v>
@@ -15885,13 +15881,13 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B607" s="4" t="n">
         <v>41670</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D607" s="3" t="n">
         <v>90</v>
@@ -15911,13 +15907,13 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B608" s="4" t="n">
         <v>41674</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D608" s="3" t="n">
         <v>90</v>
@@ -15937,13 +15933,13 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B609" s="4" t="n">
         <v>41679</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D609" s="3" t="n">
         <v>90</v>
@@ -15963,13 +15959,13 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B610" s="4" t="n">
         <v>41684</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D610" s="3" t="n">
         <v>63</v>
@@ -15989,7 +15985,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B611" s="4" t="n">
         <v>41688</v>
@@ -16015,13 +16011,13 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B612" s="4" t="n">
         <v>41693</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D612" s="3" t="n">
         <v>90</v>
@@ -16041,13 +16037,13 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B613" s="4" t="n">
         <v>41700</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D613" s="3" t="n">
         <v>90</v>
@@ -16093,13 +16089,13 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B615" s="4" t="n">
         <v>41706</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D615" s="3" t="n">
         <v>90</v>
@@ -16119,7 +16115,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B616" s="4" t="n">
         <v>41710</v>
@@ -16145,13 +16141,13 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B617" s="4" t="n">
         <v>41714</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D617" s="3" t="n">
         <v>90</v>
@@ -16171,13 +16167,13 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B618" s="4" t="n">
         <v>41719</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D618" s="3" t="n">
         <v>90</v>
@@ -16197,13 +16193,13 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B619" s="4" t="n">
         <v>41726</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D619" s="3" t="n">
         <v>90</v>
@@ -16223,7 +16219,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B620" s="4" t="n">
         <v>41731</v>
@@ -16249,13 +16245,13 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B621" s="4" t="n">
         <v>41766</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D621" s="3" t="n">
         <v>34</v>
@@ -16275,13 +16271,13 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B622" s="4" t="n">
         <v>41769</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D622" s="3" t="n">
         <v>90</v>
@@ -16301,13 +16297,13 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B623" s="4" t="n">
         <v>41776</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D623" s="3" t="n">
         <v>61</v>
@@ -16371,13 +16367,13 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B626" s="4" t="n">
         <v>41859</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D626" s="3" t="n">
         <v>90</v>
@@ -16397,13 +16393,13 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B627" s="4" t="n">
         <v>41867</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D627" s="3" t="n">
         <v>15</v>
@@ -16423,13 +16419,13 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B628" s="4" t="n">
         <v>41882</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D628" s="3" t="n">
         <v>72</v>
@@ -16501,13 +16497,13 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B631" s="4" t="n">
         <v>41895</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D631" s="3" t="n">
         <v>90</v>
@@ -16527,7 +16523,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B632" s="4" t="n">
         <v>41899</v>
@@ -16553,13 +16549,13 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B633" s="4" t="n">
         <v>41903</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D633" s="3" t="n">
         <v>90</v>
@@ -16615,13 +16611,13 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B636" s="4" t="n">
         <v>41952</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D636" s="3" t="n">
         <v>25</v>
@@ -16667,13 +16663,13 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B638" s="4" t="n">
         <v>41964</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D638" s="3" t="n">
         <v>90</v>
@@ -16693,7 +16689,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B639" s="4" t="n">
         <v>41968</v>
@@ -16719,13 +16715,13 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B640" s="4" t="n">
         <v>41972</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D640" s="3" t="n">
         <v>90</v>
@@ -16745,13 +16741,13 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B641" s="4" t="n">
         <v>41979</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D641" s="3" t="n">
         <v>90</v>
@@ -16771,7 +16767,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B642" s="4" t="n">
         <v>41983</v>
@@ -16797,13 +16793,13 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B643" s="4" t="n">
         <v>41987</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D643" s="3" t="n">
         <v>90</v>
@@ -16823,13 +16819,13 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B644" s="4" t="n">
         <v>41993</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D644" s="3" t="n">
         <v>90</v>
@@ -16849,13 +16845,13 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B645" s="4" t="n">
         <v>42009</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D645" s="3" t="n">
         <v>90</v>
@@ -16875,13 +16871,13 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B646" s="4" t="n">
         <v>42014</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D646" s="3" t="n">
         <v>90</v>
@@ -16901,13 +16897,13 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B647" s="4" t="n">
         <v>42017</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D647" s="3" t="n">
         <v>90</v>
@@ -16927,13 +16923,13 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B648" s="4" t="n">
         <v>42022</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D648" s="3" t="n">
         <v>90</v>
@@ -16953,13 +16949,13 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B649" s="4" t="n">
         <v>42025</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D649" s="3" t="n">
         <v>0</v>
@@ -16971,13 +16967,13 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B650" s="4" t="n">
         <v>42029</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D650" s="3" t="n">
         <v>90</v>
@@ -16997,13 +16993,13 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B651" s="4" t="n">
         <v>42034</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D651" s="3" t="n">
         <v>90</v>
@@ -17023,13 +17019,13 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B652" s="4" t="n">
         <v>42038</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D652" s="3" t="n">
         <v>90</v>
@@ -17049,13 +17045,13 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B653" s="4" t="n">
         <v>42043</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D653" s="3" t="n">
         <v>90</v>
@@ -17075,13 +17071,13 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B654" s="4" t="n">
         <v>42046</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D654" s="3" t="n">
         <v>0</v>
@@ -17093,13 +17089,13 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B655" s="4" t="n">
         <v>42049</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D655" s="3" t="n">
         <v>90</v>
@@ -17119,7 +17115,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B656" s="4" t="n">
         <v>42052</v>
@@ -17145,13 +17141,13 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B657" s="4" t="n">
         <v>42056</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D657" s="3" t="n">
         <v>90</v>
@@ -17171,13 +17167,13 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B658" s="4" t="n">
         <v>42070</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D658" s="3" t="n">
         <v>90</v>
@@ -17197,7 +17193,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B659" s="4" t="n">
         <v>42074</v>
@@ -17223,13 +17219,13 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B660" s="4" t="n">
         <v>42078</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D660" s="3" t="n">
         <v>90</v>
@@ -17249,13 +17245,13 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B661" s="4" t="n">
         <v>42083</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D661" s="3" t="n">
         <v>90</v>
@@ -17327,13 +17323,13 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B664" s="4" t="n">
         <v>42099</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D664" s="3" t="n">
         <v>90</v>
@@ -17353,13 +17349,13 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B665" s="4" t="n">
         <v>42102</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D665" s="3" t="n">
         <v>90</v>
@@ -17379,13 +17375,13 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B666" s="4" t="n">
         <v>42105</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D666" s="3" t="n">
         <v>90</v>
@@ -17405,7 +17401,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B667" s="4" t="n">
         <v>42115</v>
@@ -17431,13 +17427,13 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B668" s="4" t="n">
         <v>42127</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D668" s="3" t="n">
         <v>90</v>
@@ -17457,13 +17453,13 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B669" s="4" t="n">
         <v>42132</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D669" s="3" t="n">
         <v>90</v>
@@ -17483,13 +17479,13 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B670" s="4" t="n">
         <v>42154</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D670" s="3" t="n">
         <v>90</v>
@@ -17561,13 +17557,13 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B673" s="4" t="n">
         <v>42206</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D673" s="3" t="n">
         <v>69</v>
@@ -17587,13 +17583,13 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B674" s="4" t="n">
         <v>42210</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D674" s="3" t="n">
         <v>90</v>
@@ -17613,13 +17609,13 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B675" s="4" t="n">
         <v>42214</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D675" s="3" t="n">
         <v>90</v>
@@ -17639,13 +17635,13 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B676" s="4" t="n">
         <v>42217</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D676" s="3" t="n">
         <v>90</v>
@@ -17665,13 +17661,13 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B677" s="4" t="n">
         <v>42246</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D677" s="3" t="n">
         <v>75</v>
@@ -17743,7 +17739,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B680" s="4" t="n">
         <v>42262</v>
@@ -17769,13 +17765,13 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B681" s="4" t="n">
         <v>42266</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D681" s="3" t="n">
         <v>90</v>
@@ -17795,13 +17791,13 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B682" s="4" t="n">
         <v>42269</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D682" s="3" t="n">
         <v>90</v>
@@ -17821,13 +17817,13 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B683" s="4" t="n">
         <v>42273</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D683" s="3" t="n">
         <v>90</v>
@@ -17847,7 +17843,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B684" s="4" t="n">
         <v>42277</v>
@@ -17873,13 +17869,13 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B685" s="4" t="n">
         <v>42281</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D685" s="3" t="n">
         <v>90</v>
@@ -17951,13 +17947,13 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B688" s="4" t="n">
         <v>42294</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D688" s="3" t="n">
         <v>90</v>
@@ -17977,7 +17973,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B689" s="4" t="n">
         <v>42298</v>
@@ -18003,13 +17999,13 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B690" s="4" t="n">
         <v>42302</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D690" s="3" t="n">
         <v>69</v>
@@ -18029,13 +18025,13 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B691" s="4" t="n">
         <v>42307</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D691" s="3" t="n">
         <v>0</v>
@@ -18047,7 +18043,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B692" s="4" t="n">
         <v>42311</v>
@@ -18073,13 +18069,13 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B693" s="4" t="n">
         <v>42315</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D693" s="3" t="n">
         <v>90</v>
@@ -18151,13 +18147,13 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B696" s="4" t="n">
         <v>42329</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D696" s="3" t="n">
         <v>90</v>
@@ -18177,7 +18173,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B697" s="4" t="n">
         <v>42333</v>
@@ -18203,13 +18199,13 @@
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B698" s="4" t="n">
         <v>42336</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D698" s="3" t="n">
         <v>90</v>
@@ -18229,16 +18225,16 @@
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B699" s="4" t="n">
         <v>42339</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D699" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="D699" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E699" s="3" t="n">
         <v>0</v>
@@ -18255,13 +18251,13 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B700" s="4" t="n">
         <v>42342</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D700" s="3" t="n">
         <v>76</v>
@@ -18281,7 +18277,7 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B701" s="4" t="n">
         <v>42346</v>
@@ -18307,13 +18303,13 @@
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B702" s="4" t="n">
         <v>42351</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D702" s="3" t="n">
         <v>90</v>
@@ -18333,13 +18329,13 @@
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B703" s="4" t="n">
         <v>42354</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D703" s="3" t="n">
         <v>62</v>
@@ -18359,13 +18355,13 @@
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B704" s="4" t="n">
         <v>42357</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D704" s="3" t="n">
         <v>90</v>
@@ -18385,13 +18381,13 @@
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B705" s="4" t="n">
         <v>42372</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D705" s="3" t="n">
         <v>90</v>
@@ -18411,13 +18407,13 @@
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B706" s="4" t="n">
         <v>42377</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D706" s="3" t="n">
         <v>90</v>
@@ -18437,13 +18433,13 @@
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B707" s="4" t="n">
         <v>42385</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D707" s="3" t="n">
         <v>90</v>
@@ -18463,13 +18459,13 @@
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B708" s="4" t="n">
         <v>42388</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D708" s="3" t="n">
         <v>26</v>
@@ -18489,13 +18485,13 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B709" s="4" t="n">
         <v>42392</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D709" s="3" t="n">
         <v>90</v>
@@ -18515,13 +18511,13 @@
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B710" s="4" t="n">
         <v>42396</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D710" s="3" t="n">
         <v>16</v>
@@ -18541,13 +18537,13 @@
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B711" s="4" t="n">
         <v>42400</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D711" s="3" t="n">
         <v>90</v>
@@ -18567,13 +18563,13 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B712" s="4" t="n">
         <v>42403</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D712" s="3" t="n">
         <v>90</v>
@@ -18593,13 +18589,13 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B713" s="4" t="n">
         <v>42407</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D713" s="3" t="n">
         <v>90</v>
@@ -18619,13 +18615,13 @@
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B714" s="4" t="n">
         <v>42410</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D714" s="3" t="n">
         <v>70</v>
@@ -18645,7 +18641,7 @@
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B715" s="4" t="n">
         <v>42416</v>
@@ -18671,13 +18667,13 @@
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B716" s="4" t="n">
         <v>42420</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D716" s="3" t="n">
         <v>90</v>
@@ -18697,13 +18693,13 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B717" s="4" t="n">
         <v>42428</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D717" s="3" t="n">
         <v>90</v>
@@ -18723,13 +18719,13 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B718" s="4" t="n">
         <v>42431</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D718" s="3" t="n">
         <v>90</v>
@@ -18749,7 +18745,7 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B719" s="4" t="n">
         <v>42438</v>
@@ -18775,13 +18771,13 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B720" s="4" t="n">
         <v>42442</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D720" s="3" t="n">
         <v>90</v>
@@ -18801,13 +18797,13 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B721" s="4" t="n">
         <v>42449</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D721" s="3" t="n">
         <v>90</v>
@@ -18853,13 +18849,13 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B723" s="4" t="n">
         <v>42462</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D723" s="3" t="n">
         <v>90</v>
@@ -18879,7 +18875,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B724" s="4" t="n">
         <v>42466</v>
@@ -18905,7 +18901,7 @@
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B725" s="4" t="n">
         <v>42472</v>
@@ -18931,13 +18927,13 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B726" s="4" t="n">
         <v>42476</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D726" s="3" t="n">
         <v>90</v>
@@ -18957,13 +18953,13 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B727" s="4" t="n">
         <v>42479</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D727" s="3" t="n">
         <v>90</v>
@@ -18983,13 +18979,13 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B728" s="4" t="n">
         <v>42483</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D728" s="3" t="n">
         <v>90</v>
@@ -19009,13 +19005,13 @@
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B729" s="4" t="n">
         <v>42489</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D729" s="3" t="n">
         <v>90</v>
@@ -19035,13 +19031,13 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B730" s="4" t="n">
         <v>42497</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D730" s="3" t="n">
         <v>90</v>
@@ -19061,13 +19057,13 @@
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B731" s="4" t="n">
         <v>42501</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D731" s="3" t="n">
         <v>70</v>
@@ -19087,13 +19083,13 @@
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B732" s="4" t="n">
         <v>42504</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D732" s="3" t="n">
         <v>90</v>
@@ -19113,13 +19109,13 @@
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B733" s="4" t="n">
         <v>42511</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D733" s="3" t="n">
         <v>90</v>
